--- a/EDA/Velocity BOM.xlsx
+++ b/EDA/Velocity BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20359"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.monash.edu\home\User070\scat0009\Documents\Monash-BoSL\Velocity\Heterodyne\EDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Monash-BoSL\Velocity\Heterodyne\EDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15619CA3-C120-40B3-952F-6F85B48A46CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328B2946-41FB-4082-AEFF-3363900A2A13}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="2580" windowWidth="16065" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="101">
   <si>
     <t>Part Number</t>
   </si>
@@ -75,6 +81,12 @@
     <t>330 pF</t>
   </si>
   <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>1 μF</t>
+  </si>
+  <si>
     <t>R2</t>
   </si>
   <si>
@@ -87,9 +99,6 @@
     <t>Oscilator</t>
   </si>
   <si>
-    <t>OpAmp</t>
-  </si>
-  <si>
     <t>SA612AD</t>
   </si>
   <si>
@@ -111,21 +120,9 @@
     <t>22 nF</t>
   </si>
   <si>
-    <t xml:space="preserve">C4 </t>
-  </si>
-  <si>
-    <t>C5, C6</t>
-  </si>
-  <si>
     <t>3.3 μF</t>
   </si>
   <si>
-    <t>C9, C10, C12</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
     <t>R7, R9</t>
   </si>
   <si>
@@ -150,109 +147,193 @@
     <t>https://www.digikey.com/product-detail/en/maxim-integrated/MAX7375AXR105-T/MAX7375AXR105-TCT-ND/4490142</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/microchip-technology/ATMEGA328PB-AU/ATMEGA328PB-AU-ND/5638812</t>
-  </si>
-  <si>
-    <t>ATmega328PB-AU</t>
-  </si>
-  <si>
-    <t>TQFP-32</t>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Crystal Oscilator</t>
+  </si>
+  <si>
+    <t>18 pF</t>
+  </si>
+  <si>
+    <t>RS485 Bus</t>
+  </si>
+  <si>
+    <t>SP3075</t>
+  </si>
+  <si>
+    <t>https://au.element14.com/exar/sp3075een-l/transceiver-rs-485-3v-smd-3075/dp/9386688</t>
+  </si>
+  <si>
+    <t>C1 - C5</t>
+  </si>
+  <si>
+    <t>C6 - C10</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>32.768 kHz</t>
+  </si>
+  <si>
+    <t>https://au.rs-online.com/web/p/crystal-units/6480222/</t>
+  </si>
+  <si>
+    <t>C12, C13</t>
+  </si>
+  <si>
+    <t>C15, C16, C17</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>4.7 μF</t>
+  </si>
+  <si>
+    <t>4.9mm x 1.8mm</t>
+  </si>
+  <si>
+    <t>10 μF</t>
+  </si>
+  <si>
+    <t>ATSAMD21G18A</t>
+  </si>
+  <si>
+    <t>QFP50-48</t>
+  </si>
+  <si>
+    <t>https://www.microchip.com/wwwproducts/en/ATsamd21g18</t>
+  </si>
+  <si>
+    <t>R1, R3</t>
+  </si>
+  <si>
+    <t>20 kΩ</t>
+  </si>
+  <si>
+    <t>C19 - C25</t>
+  </si>
+  <si>
+    <t>C26, C27, C28</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>2.8 MΩ</t>
+  </si>
+  <si>
+    <t>500 kΩ</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>200 Ω</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>100 Ω</t>
+  </si>
+  <si>
+    <t>R4, R8, R10, R14, R15</t>
+  </si>
+  <si>
+    <t>R5, R16</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>15 kΩ</t>
+  </si>
+  <si>
+    <t>https://au.mouser.com/ProductDetail/Murata-Electronics/BLM18PG471SN1D?qs=EYzdjubb4S%2FN1Ip39GrHyg%3D%3D</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>SMD Inductor</t>
+  </si>
+  <si>
+    <t>BLM18PG471SN1D</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>XFL4020-472MEC</t>
+  </si>
+  <si>
+    <t>https://au.mouser.com/ProductDetail/Coilcraft/XFL4020-472MEC?qs=zCSbvcPd3pYTqnxfKsElWw%3D%3D</t>
+  </si>
+  <si>
+    <t>4.7 μH</t>
+  </si>
+  <si>
+    <t>4x4mm</t>
+  </si>
+  <si>
+    <t>OPA4354</t>
+  </si>
+  <si>
+    <t>SOIC-14</t>
+  </si>
+  <si>
+    <t>4xOPAmp</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/texas-instruments/OPA4354AIDR/296-12643-2-ND/454201</t>
+  </si>
+  <si>
+    <t>TPS61222</t>
+  </si>
+  <si>
+    <t>Microcontroller</t>
+  </si>
+  <si>
+    <t>SC70-6</t>
   </si>
   <si>
     <t>U5</t>
   </si>
   <si>
-    <t>Microcontroler</t>
-  </si>
-  <si>
-    <t>MAX11613</t>
-  </si>
-  <si>
-    <t>MSOP-8</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>ADC</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/maxim-integrated/MAX11613EUA-T/MAX11613EUA-CT-ND/5639977</t>
-  </si>
-  <si>
-    <t>5032-2Pin</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>Crystal Oscilator</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/ndk-america-inc/NX5032GA-8.000M-STD-CSU-1/644-1132-1-ND/1788487</t>
-  </si>
-  <si>
-    <t>18 pF</t>
-  </si>
-  <si>
-    <t>C1 - C3, C7</t>
-  </si>
-  <si>
-    <t>OPA2830</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com.au/product-detail/en/texas-instruments/OPA2830IDR/296-44328-1-ND/6110601</t>
-  </si>
-  <si>
-    <t>1 nF</t>
-  </si>
-  <si>
-    <t>C8,C15</t>
-  </si>
-  <si>
-    <t>12 kΩ</t>
-  </si>
-  <si>
-    <t>R5, R8, R11</t>
-  </si>
-  <si>
-    <t>R1, R3, R6, R10, R12</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com.au/product-detail/en/murata-electronics/GRM033R61A104ME15D/490-5405-1-ND/2175212</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com.au/product-detail/en/kemet/C0603C223K1RACTU/399-3476-1-ND/754769</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com.au/product-detail/en/yageo/CC0201JRNPO8BN180/311-3314-1-ND/6818284</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com.au/product-detail/en/murata-electronics/GRM033R71H102KA12D/490-10682-1-ND/5251423</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com.au/product-detail/en/murata-electronics/GRM033R61E331KA01D/490-17029-1-ND/7602028</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com.au/product-detail/en/kemet/C0805C335K8PACTU/399-3129-1-ND/551634</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com.au/product-detail/en/yageo/RC0603JR-071KL/311-1-0KGRCT-ND/729624</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com.au/product-detail/en/panasonic-electronic-components/ERA-3AEB332V/P3-3KDBCT-ND/1466064</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com.au/product-detail/en/vishay-dale/CRCW020112K0FKED/541-12-0KAABCT-ND/1968274</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com.au/product-detail/en/panasonic-electronic-components/ERJ-3EKF3300V/P330HCT-ND/1746761</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com.au/product-detail/en/yageo/RC0603JR-0710KL/311-10KGRCT-ND/729647</t>
-  </si>
-  <si>
-    <t>C11, C13, C14, C16</t>
+    <t>Boost Converter</t>
+  </si>
+  <si>
+    <t>https://au.mouser.com/ProductDetail/Texas-Instruments/TPS61222DCKR?qs=IDSsxkoac0xpx0kmXXJcTA%3D%3D</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>Instrumentation Amplifier</t>
+  </si>
+  <si>
+    <t>AD8226BRZ</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/analog-devices-inc/AD8226BRZ/AD8226BRZ-ND/2182229</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>FX255</t>
   </si>
 </sst>
 </file>
@@ -315,7 +396,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1"/>
@@ -329,6 +410,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -611,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,10 +735,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -664,115 +747,109 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="F2" s="3">
         <v>2</v>
       </c>
       <c r="G2" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H2" s="5">
         <f>G2*F2</f>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" s="5">
         <v>0.1</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" ref="H3:H19" si="0">G3*F3</f>
-        <v>0.4</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>64</v>
-      </c>
+        <f t="shared" ref="H3:H42" si="0">G3*F3</f>
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G4" s="5">
         <v>0.1</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>65</v>
-      </c>
+        <f t="shared" ref="H4" si="1">G4*F4</f>
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5">
         <v>0.1</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F6" s="3">
         <v>2</v>
@@ -784,49 +861,45 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" ref="H7" si="2">G7*F7</f>
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="5">
-        <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="F8" s="3">
         <v>3</v>
@@ -838,103 +911,92 @@
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F9" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G9" s="5">
         <v>0.1</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>70</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G10" s="5">
         <v>0.1</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>71</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" s="5">
         <v>0.1</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>72</v>
-      </c>
+        <f t="shared" ref="H11" si="3">G11*F11</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F12" s="3">
         <v>2</v>
@@ -946,242 +1008,585 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" ref="H15" si="4">G15*F15</f>
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" ref="H16" si="5">G16*F16</f>
+        <v>0.1</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F17" s="3">
+        <v>5</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" ref="H18" si="6">G18*F18</f>
+        <v>0.1</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" ref="H19" si="7">G19*F19</f>
+        <v>0.2</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" ref="H20" si="8">G20*F20</f>
+        <v>0.1</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" ref="H21:H23" si="9">G21*F21</f>
+        <v>0.1</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
         <v>3</v>
       </c>
-      <c r="G13" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="H13" s="5">
-        <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="H23" s="5">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5">
+        <v>2.29</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="0"/>
+        <v>2.29</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5">
-        <v>2.29</v>
-      </c>
-      <c r="H14" s="5">
-        <f t="shared" si="0"/>
-        <v>2.29</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1.56</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="0"/>
+        <v>1.56</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5">
-        <v>4.79</v>
-      </c>
-      <c r="H15" s="5">
-        <f t="shared" si="0"/>
-        <v>4.79</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="B28" s="11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1.56</v>
-      </c>
-      <c r="H16" s="5">
-        <f t="shared" si="0"/>
-        <v>1.56</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="C28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
+        <v>3</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
+        <v>5</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <v>2.54</v>
+      </c>
+      <c r="H31" s="5">
+        <f>G31*F31</f>
+        <v>2.54</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1.96</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1.96</v>
+      </c>
+      <c r="I33" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5">
-        <v>2.71</v>
-      </c>
-      <c r="H17" s="5">
-        <f>F17*G17</f>
-        <v>2.71</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1.34</v>
-      </c>
-      <c r="H18" s="5">
-        <f>G18*F18</f>
-        <v>1.34</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="H19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.65</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H30" s="5"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H35" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H36" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H37" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H38" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H39" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H40" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H41" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H42" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H44" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I17" r:id="rId1" xr:uid="{7C4D3448-9EDB-4F85-8910-25821B00AB31}"/>
-    <hyperlink ref="I19" r:id="rId2" xr:uid="{8EDD25AB-7C27-4817-91D3-84AA7D00455B}"/>
+    <hyperlink ref="I31" r:id="rId1" xr:uid="{F1EE4AFB-E33C-469B-B142-D8223B12ABF1}"/>
+    <hyperlink ref="I28" r:id="rId2" xr:uid="{8F9BB6E7-7DDA-4F1A-A85C-D7076DEEF595}"/>
+    <hyperlink ref="I22" r:id="rId3" xr:uid="{0BE86C0E-07A5-4AD0-B87B-7EA263BFF0FA}"/>
+    <hyperlink ref="I23" r:id="rId4" xr:uid="{6F80DA09-456E-475C-9C79-12156A1BD89B}"/>
+    <hyperlink ref="I26" r:id="rId5" xr:uid="{FC053A01-0551-4A9E-A089-C6FCAFF9F369}"/>
+    <hyperlink ref="I29" r:id="rId6" xr:uid="{FF1D4C32-BE86-4C20-9FC6-0A3792838C64}"/>
+    <hyperlink ref="I30" r:id="rId7" xr:uid="{826EEC92-785C-4A96-8E24-6326348C7913}"/>
+    <hyperlink ref="I33" r:id="rId8" xr:uid="{7C631F5B-E0EC-48FA-900E-C7F12D07EAF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>